--- a/REGULAR/MAYORS OFFICE/FERMA, MA. VICTORIA.xlsx
+++ b/REGULAR/MAYORS OFFICE/FERMA, MA. VICTORIA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="427">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2011,7 +2011,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K720" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K721" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2340,12 +2340,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K720"/>
+  <dimension ref="A2:K721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1710" topLeftCell="A675" activePane="bottomLeft"/>
-      <selection activeCell="M5" sqref="M5"/>
-      <selection pane="bottomLeft" activeCell="F692" sqref="F692"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="3510" topLeftCell="A705" activePane="bottomLeft"/>
+      <selection activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="K719" sqref="K719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,7 +2504,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>52.134000000000071</v>
+        <v>54.634000000000071</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2514,7 +2514,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>58.25</v>
+        <v>58.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18343,13 +18343,15 @@
         <v>45170</v>
       </c>
       <c r="B717" s="20"/>
-      <c r="C717" s="13"/>
+      <c r="C717" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D717" s="39"/>
       <c r="E717" s="9"/>
       <c r="F717" s="20"/>
-      <c r="G717" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G717" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H717" s="39"/>
       <c r="I717" s="9"/>
@@ -18360,25 +18362,33 @@
       <c r="A718" s="40">
         <v>45200</v>
       </c>
-      <c r="B718" s="20"/>
-      <c r="C718" s="13"/>
+      <c r="B718" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C718" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D718" s="39"/>
       <c r="E718" s="9"/>
       <c r="F718" s="20"/>
-      <c r="G718" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H718" s="39"/>
+      <c r="G718" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H718" s="39">
+        <v>1</v>
+      </c>
       <c r="I718" s="9"/>
       <c r="J718" s="11"/>
-      <c r="K718" s="20"/>
+      <c r="K718" s="48">
+        <v>45219</v>
+      </c>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A719" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B719" s="20"/>
+      <c r="A719" s="40"/>
+      <c r="B719" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C719" s="13"/>
       <c r="D719" s="39"/>
       <c r="E719" s="9"/>
@@ -18387,14 +18397,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H719" s="39"/>
+      <c r="H719" s="39">
+        <v>1</v>
+      </c>
       <c r="I719" s="9"/>
       <c r="J719" s="11"/>
-      <c r="K719" s="20"/>
+      <c r="K719" s="48">
+        <v>45230</v>
+      </c>
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18409,6 +18423,24 @@
       <c r="I720" s="9"/>
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
+    </row>
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A721" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B721" s="20"/>
+      <c r="C721" s="13"/>
+      <c r="D721" s="39"/>
+      <c r="E721" s="9"/>
+      <c r="F721" s="20"/>
+      <c r="G721" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H721" s="39"/>
+      <c r="I721" s="9"/>
+      <c r="J721" s="11"/>
+      <c r="K721" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
